--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.002899999999998</v>
+        <v>-6.932899999999994</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.602499999999999</v>
+        <v>4.7822</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.30260000000001</v>
+        <v>-22.28000000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.81999999999999</v>
+        <v>-21.8266</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.06459999999999</v>
+        <v>15.76279999999999</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5324</v>
+        <v>-21.55110000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.735</v>
+        <v>17.70100000000001</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.18120000000001</v>
+        <v>16.60070000000001</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.43080000000001</v>
+        <v>16.71860000000001</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.631499999999996</v>
+        <v>4.430399999999997</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.44060000000001</v>
+        <v>-22.5187</v>
       </c>
       <c r="B18" t="n">
-        <v>4.523299999999996</v>
+        <v>4.479099999999996</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.177699999999993</v>
+        <v>-8.178599999999994</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.870799999999992</v>
+        <v>-9.084499999999986</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.736799999999986</v>
+        <v>9.795599999999986</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.7798</v>
+        <v>-8.862199999999996</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.059300000000002</v>
+        <v>5.261900000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.33380000000002</v>
+        <v>17.19</v>
       </c>
     </row>
     <row r="30">
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.319900000000001</v>
+        <v>4.581300000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.678700000000006</v>
+        <v>5.875800000000003</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.216699999999996</v>
+        <v>-8.270599999999995</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.285</v>
+        <v>16.0622</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.5286</v>
+        <v>16.5304</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.1488</v>
+        <v>-20.26079999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.546700000000001</v>
+        <v>-8.565700000000007</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.979399999999995</v>
+        <v>8.826599999999996</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.903899999999995</v>
+        <v>-8.853799999999996</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.37250000000001</v>
+        <v>17.4201</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.967899999999998</v>
+        <v>-7.8283</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.628300000000003</v>
+        <v>-7.6607</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.35770000000001</v>
+        <v>17.41540000000002</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>15.82129999999999</v>
+        <v>15.7463</v>
       </c>
     </row>
     <row r="50">
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.718600000000001</v>
+        <v>4.723200000000002</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.26979999999999</v>
+        <v>16.462</v>
       </c>
     </row>
     <row r="51">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4637</v>
+        <v>-21.7654</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.25970000000001</v>
+        <v>16.0635</v>
       </c>
     </row>
     <row r="57">
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.399899999999995</v>
+        <v>-8.206</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.842499999999998</v>
+        <v>-7.712099999999998</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.4937</v>
+        <v>-21.51700000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.5807</v>
+        <v>4.7992</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.37070000000002</v>
+        <v>17.39040000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.8542</v>
+        <v>-7.825399999999997</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.973099999999997</v>
+        <v>6.6085</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.8435</v>
+        <v>-20.88079999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.02589999999998</v>
+        <v>-20.16289999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.1452</v>
+        <v>-22.02130000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.0305</v>
+        <v>16.57340000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8689</v>
+        <v>-21.7292</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.729799999999997</v>
+        <v>4.701699999999994</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>5.067199999999997</v>
+        <v>4.777899999999997</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.154100000000005</v>
+        <v>-8.094000000000003</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.61100000000001</v>
+        <v>18.57470000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.754900000000003</v>
+        <v>-6.824199999999999</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.9321</v>
+        <v>-7.942899999999998</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>4.711300000000008</v>
+        <v>4.820700000000007</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.250699999999999</v>
+        <v>6.047899999999998</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,13 +2148,13 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.808599999999995</v>
+        <v>9.023299999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.757899999999995</v>
+        <v>-7.541399999999999</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.451400000000005</v>
+        <v>8.7745</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
